--- a/india/forecasts_20200517.xlsx
+++ b/india/forecasts_20200517.xlsx
@@ -80,169 +80,169 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">4218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4314</t>
+    <t xml:space="preserve">4222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4376</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t xml:space="preserve">4465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4587</t>
+    <t xml:space="preserve">4436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4605</t>
   </si>
   <si>
     <t xml:space="preserve">3</t>
   </si>
   <si>
-    <t xml:space="preserve">4696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4832</t>
+    <t xml:space="preserve">4646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4829</t>
   </si>
   <si>
     <t xml:space="preserve">4</t>
   </si>
   <si>
-    <t xml:space="preserve">4979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5132</t>
+    <t xml:space="preserve">4868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4670</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5080</t>
   </si>
   <si>
     <t xml:space="preserve">5</t>
   </si>
   <si>
-    <t xml:space="preserve">5209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5379</t>
+    <t xml:space="preserve">5056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5289</t>
   </si>
   <si>
     <t xml:space="preserve">6</t>
   </si>
   <si>
-    <t xml:space="preserve">5506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5701</t>
+    <t xml:space="preserve">5277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5541</t>
   </si>
   <si>
     <t xml:space="preserve">7</t>
   </si>
   <si>
-    <t xml:space="preserve">5776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5989</t>
+    <t xml:space="preserve">5540</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5814</t>
   </si>
   <si>
     <t xml:space="preserve">8</t>
   </si>
   <si>
-    <t xml:space="preserve">6056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6288</t>
+    <t xml:space="preserve">5777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6069</t>
   </si>
   <si>
     <t xml:space="preserve">9</t>
   </si>
   <si>
-    <t xml:space="preserve">6405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6659</t>
+    <t xml:space="preserve">6019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6337</t>
   </si>
   <si>
     <t xml:space="preserve">10</t>
   </si>
   <si>
-    <t xml:space="preserve">6737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7018</t>
+    <t xml:space="preserve">6262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6594</t>
   </si>
   <si>
     <t xml:space="preserve">11</t>
   </si>
   <si>
-    <t xml:space="preserve">7042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6750</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7345</t>
+    <t xml:space="preserve">6514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6867</t>
   </si>
   <si>
     <t xml:space="preserve">12</t>
   </si>
   <si>
-    <t xml:space="preserve">7537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7882</t>
+    <t xml:space="preserve">6878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7274</t>
   </si>
   <si>
     <t xml:space="preserve">13</t>
   </si>
   <si>
-    <t xml:space="preserve">7931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8302</t>
+    <t xml:space="preserve">7112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7539</t>
   </si>
   <si>
     <t xml:space="preserve">14</t>
   </si>
   <si>
-    <t xml:space="preserve">8257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7880</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8659</t>
+    <t xml:space="preserve">7338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7777</t>
   </si>
 </sst>
 </file>
@@ -659,28 +659,28 @@
         <v>74296</v>
       </c>
       <c r="E2" t="n">
-        <v>72346</v>
+        <v>72329</v>
       </c>
       <c r="F2" t="n">
-        <v>76253</v>
+        <v>76229</v>
       </c>
       <c r="G2" t="n">
         <v>5242</v>
       </c>
       <c r="H2" t="n">
-        <v>3292</v>
+        <v>3275</v>
       </c>
       <c r="I2" t="n">
-        <v>7199</v>
+        <v>7175</v>
       </c>
       <c r="J2" t="n">
         <v>0.0759</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0477</v>
+        <v>0.0474</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1043</v>
+        <v>0.1039</v>
       </c>
       <c r="M2" t="s">
         <v>22</v>
@@ -692,22 +692,22 @@
         <v>24</v>
       </c>
       <c r="P2" t="n">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q2" t="n">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="R2" t="n">
-        <v>264</v>
+        <v>326</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0415</v>
+        <v>0.0425</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0188</v>
+        <v>0.0051</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0653</v>
+        <v>0.0806</v>
       </c>
     </row>
     <row r="3">
@@ -724,28 +724,28 @@
         <v>81287</v>
       </c>
       <c r="E3" t="n">
-        <v>79027</v>
+        <v>78622</v>
       </c>
       <c r="F3" t="n">
-        <v>84007</v>
+        <v>84069</v>
       </c>
       <c r="G3" t="n">
         <v>6991</v>
       </c>
       <c r="H3" t="n">
-        <v>5679</v>
+        <v>5495</v>
       </c>
       <c r="I3" t="n">
-        <v>8577</v>
+        <v>8494</v>
       </c>
       <c r="J3" t="n">
         <v>0.0941</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0764</v>
+        <v>0.074</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1154</v>
+        <v>0.1143</v>
       </c>
       <c r="M3" t="s">
         <v>26</v>
@@ -757,22 +757,22 @@
         <v>28</v>
       </c>
       <c r="P3" t="n">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="Q3" t="n">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="R3" t="n">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0584</v>
+        <v>0.0508</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0443</v>
+        <v>0.0384</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0726</v>
+        <v>0.0633</v>
       </c>
     </row>
     <row r="4">
@@ -789,28 +789,28 @@
         <v>86638</v>
       </c>
       <c r="E4" t="n">
-        <v>83602</v>
+        <v>83451</v>
       </c>
       <c r="F4" t="n">
-        <v>89879</v>
+        <v>89909</v>
       </c>
       <c r="G4" t="n">
         <v>5351</v>
       </c>
       <c r="H4" t="n">
-        <v>3645</v>
+        <v>3701</v>
       </c>
       <c r="I4" t="n">
-        <v>6915</v>
+        <v>6947</v>
       </c>
       <c r="J4" t="n">
         <v>0.0658</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0448</v>
+        <v>0.0455</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0851</v>
+        <v>0.0855</v>
       </c>
       <c r="M4" t="s">
         <v>30</v>
@@ -822,22 +822,22 @@
         <v>32</v>
       </c>
       <c r="P4" t="n">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="Q4" t="n">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="R4" t="n">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0518</v>
+        <v>0.0473</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0394</v>
+        <v>0.0342</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0654</v>
+        <v>0.0606</v>
       </c>
     </row>
     <row r="5">
@@ -854,28 +854,28 @@
         <v>92177</v>
       </c>
       <c r="E5" t="n">
-        <v>88571</v>
+        <v>88437</v>
       </c>
       <c r="F5" t="n">
-        <v>95980</v>
+        <v>96096</v>
       </c>
       <c r="G5" t="n">
         <v>5539</v>
       </c>
       <c r="H5" t="n">
-        <v>3737</v>
+        <v>3969</v>
       </c>
       <c r="I5" t="n">
-        <v>7357</v>
+        <v>7329</v>
       </c>
       <c r="J5" t="n">
         <v>0.0639</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0431</v>
+        <v>0.0458</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0849</v>
+        <v>0.0846</v>
       </c>
       <c r="M5" t="s">
         <v>34</v>
@@ -887,22 +887,22 @@
         <v>36</v>
       </c>
       <c r="P5" t="n">
-        <v>283</v>
+        <v>221</v>
       </c>
       <c r="Q5" t="n">
-        <v>220</v>
+        <v>163</v>
       </c>
       <c r="R5" t="n">
-        <v>341</v>
+        <v>286</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0602</v>
+        <v>0.0476</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0468</v>
+        <v>0.0351</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0727</v>
+        <v>0.0615</v>
       </c>
     </row>
     <row r="6">
@@ -919,28 +919,28 @@
         <v>95553</v>
       </c>
       <c r="E6" t="n">
-        <v>91457</v>
+        <v>91383</v>
       </c>
       <c r="F6" t="n">
-        <v>100016</v>
+        <v>99905</v>
       </c>
       <c r="G6" t="n">
         <v>3376</v>
       </c>
       <c r="H6" t="n">
-        <v>1552</v>
+        <v>1660</v>
       </c>
       <c r="I6" t="n">
-        <v>5301</v>
+        <v>5054</v>
       </c>
       <c r="J6" t="n">
         <v>0.0366</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0168</v>
+        <v>0.018</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0575</v>
+        <v>0.0548</v>
       </c>
       <c r="M6" t="s">
         <v>38</v>
@@ -952,22 +952,22 @@
         <v>40</v>
       </c>
       <c r="P6" t="n">
-        <v>230</v>
+        <v>188</v>
       </c>
       <c r="Q6" t="n">
-        <v>166</v>
+        <v>123</v>
       </c>
       <c r="R6" t="n">
-        <v>293</v>
+        <v>250</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0463</v>
+        <v>0.0386</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0334</v>
+        <v>0.0252</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0588</v>
+        <v>0.0513</v>
       </c>
     </row>
     <row r="7">
@@ -984,28 +984,28 @@
         <v>101810</v>
       </c>
       <c r="E7" t="n">
-        <v>97104</v>
+        <v>97056</v>
       </c>
       <c r="F7" t="n">
-        <v>106561</v>
+        <v>106559</v>
       </c>
       <c r="G7" t="n">
         <v>6257</v>
       </c>
       <c r="H7" t="n">
-        <v>4433</v>
+        <v>4342</v>
       </c>
       <c r="I7" t="n">
-        <v>8160</v>
+        <v>8244</v>
       </c>
       <c r="J7" t="n">
         <v>0.0655</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0464</v>
+        <v>0.0454</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0854</v>
+        <v>0.0863</v>
       </c>
       <c r="M7" t="s">
         <v>42</v>
@@ -1017,22 +1017,22 @@
         <v>44</v>
       </c>
       <c r="P7" t="n">
-        <v>298</v>
+        <v>222</v>
       </c>
       <c r="Q7" t="n">
-        <v>230</v>
+        <v>154</v>
       </c>
       <c r="R7" t="n">
-        <v>368</v>
+        <v>289</v>
       </c>
       <c r="S7" t="n">
+        <v>0.0439</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.0305</v>
+      </c>
+      <c r="U7" t="n">
         <v>0.0571</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.0441</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0.0707</v>
       </c>
     </row>
     <row r="8">
@@ -1049,28 +1049,28 @@
         <v>106345</v>
       </c>
       <c r="E8" t="n">
-        <v>101156</v>
+        <v>101035</v>
       </c>
       <c r="F8" t="n">
-        <v>111880</v>
+        <v>111956</v>
       </c>
       <c r="G8" t="n">
         <v>4535</v>
       </c>
       <c r="H8" t="n">
-        <v>2625</v>
+        <v>2473</v>
       </c>
       <c r="I8" t="n">
-        <v>6402</v>
+        <v>6618</v>
       </c>
       <c r="J8" t="n">
         <v>0.0445</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0258</v>
+        <v>0.0243</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0629</v>
+        <v>0.065</v>
       </c>
       <c r="M8" t="s">
         <v>46</v>
@@ -1082,22 +1082,22 @@
         <v>48</v>
       </c>
       <c r="P8" t="n">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="Q8" t="n">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="R8" t="n">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0489</v>
+        <v>0.0497</v>
       </c>
       <c r="T8" t="n">
         <v>0.0363</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0631</v>
+        <v>0.0636</v>
       </c>
     </row>
     <row r="9">
@@ -1114,28 +1114,28 @@
         <v>112853</v>
       </c>
       <c r="E9" t="n">
-        <v>106767</v>
+        <v>106639</v>
       </c>
       <c r="F9" t="n">
-        <v>119114</v>
+        <v>119186</v>
       </c>
       <c r="G9" t="n">
         <v>6508</v>
       </c>
       <c r="H9" t="n">
-        <v>4442</v>
+        <v>4406</v>
       </c>
       <c r="I9" t="n">
-        <v>8557</v>
+        <v>8598</v>
       </c>
       <c r="J9" t="n">
         <v>0.0612</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0418</v>
+        <v>0.0414</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0805</v>
+        <v>0.0809</v>
       </c>
       <c r="M9" t="s">
         <v>50</v>
@@ -1147,22 +1147,22 @@
         <v>52</v>
       </c>
       <c r="P9" t="n">
-        <v>280</v>
+        <v>237</v>
       </c>
       <c r="Q9" t="n">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="R9" t="n">
-        <v>359</v>
+        <v>309</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0485</v>
+        <v>0.0428</v>
       </c>
       <c r="T9" t="n">
-        <v>0.0347</v>
+        <v>0.0298</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0622</v>
+        <v>0.0558</v>
       </c>
     </row>
     <row r="10">
@@ -1179,28 +1179,28 @@
         <v>119836</v>
       </c>
       <c r="E10" t="n">
-        <v>113292</v>
+        <v>112976</v>
       </c>
       <c r="F10" t="n">
-        <v>126721</v>
+        <v>126817</v>
       </c>
       <c r="G10" t="n">
         <v>6983</v>
       </c>
       <c r="H10" t="n">
-        <v>4780</v>
+        <v>4815</v>
       </c>
       <c r="I10" t="n">
-        <v>9341</v>
+        <v>9158</v>
       </c>
       <c r="J10" t="n">
         <v>0.0619</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0424</v>
+        <v>0.0427</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0828</v>
+        <v>0.0811</v>
       </c>
       <c r="M10" t="s">
         <v>54</v>
@@ -1212,22 +1212,22 @@
         <v>56</v>
       </c>
       <c r="P10" t="n">
-        <v>349</v>
+        <v>242</v>
       </c>
       <c r="Q10" t="n">
-        <v>272</v>
+        <v>169</v>
       </c>
       <c r="R10" t="n">
-        <v>429</v>
+        <v>317</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0576</v>
+        <v>0.042</v>
       </c>
       <c r="T10" t="n">
-        <v>0.0449</v>
+        <v>0.0293</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0709</v>
+        <v>0.0548</v>
       </c>
     </row>
     <row r="11">
@@ -1244,28 +1244,28 @@
         <v>127463</v>
       </c>
       <c r="E11" t="n">
-        <v>119868</v>
+        <v>120137</v>
       </c>
       <c r="F11" t="n">
-        <v>135368</v>
+        <v>135881</v>
       </c>
       <c r="G11" t="n">
         <v>7627</v>
       </c>
       <c r="H11" t="n">
-        <v>5319</v>
+        <v>5205</v>
       </c>
       <c r="I11" t="n">
-        <v>10027</v>
+        <v>10097</v>
       </c>
       <c r="J11" t="n">
         <v>0.0636</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0444</v>
+        <v>0.0434</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0837</v>
+        <v>0.0843</v>
       </c>
       <c r="M11" t="s">
         <v>58</v>
@@ -1277,22 +1277,22 @@
         <v>60</v>
       </c>
       <c r="P11" t="n">
-        <v>333</v>
+        <v>243</v>
       </c>
       <c r="Q11" t="n">
-        <v>249</v>
+        <v>166</v>
       </c>
       <c r="R11" t="n">
-        <v>422</v>
+        <v>323</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0519</v>
+        <v>0.0403</v>
       </c>
       <c r="T11" t="n">
-        <v>0.039</v>
+        <v>0.0277</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0659</v>
+        <v>0.0537</v>
       </c>
     </row>
     <row r="12">
@@ -1309,28 +1309,28 @@
         <v>133938</v>
       </c>
       <c r="E12" t="n">
-        <v>125991</v>
+        <v>125950</v>
       </c>
       <c r="F12" t="n">
-        <v>142854</v>
+        <v>142529</v>
       </c>
       <c r="G12" t="n">
         <v>6475</v>
       </c>
       <c r="H12" t="n">
-        <v>4186</v>
+        <v>4009</v>
       </c>
       <c r="I12" t="n">
-        <v>8970</v>
+        <v>9188</v>
       </c>
       <c r="J12" t="n">
         <v>0.0508</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0328</v>
+        <v>0.0315</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0704</v>
+        <v>0.0721</v>
       </c>
       <c r="M12" t="s">
         <v>62</v>
@@ -1342,22 +1342,22 @@
         <v>64</v>
       </c>
       <c r="P12" t="n">
-        <v>305</v>
+        <v>252</v>
       </c>
       <c r="Q12" t="n">
-        <v>218</v>
+        <v>171</v>
       </c>
       <c r="R12" t="n">
-        <v>395</v>
+        <v>336</v>
       </c>
       <c r="S12" t="n">
-        <v>0.0453</v>
+        <v>0.0402</v>
       </c>
       <c r="T12" t="n">
-        <v>0.0324</v>
+        <v>0.0273</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0586</v>
+        <v>0.0537</v>
       </c>
     </row>
     <row r="13">
@@ -1374,28 +1374,28 @@
         <v>145285</v>
       </c>
       <c r="E13" t="n">
-        <v>135928</v>
+        <v>136634</v>
       </c>
       <c r="F13" t="n">
-        <v>155612</v>
+        <v>155274</v>
       </c>
       <c r="G13" t="n">
         <v>11347</v>
       </c>
       <c r="H13" t="n">
-        <v>8589</v>
+        <v>8841</v>
       </c>
       <c r="I13" t="n">
-        <v>14167</v>
+        <v>14445</v>
       </c>
       <c r="J13" t="n">
         <v>0.0847</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0641</v>
+        <v>0.066</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1058</v>
+        <v>0.1078</v>
       </c>
       <c r="M13" t="s">
         <v>66</v>
@@ -1407,22 +1407,22 @@
         <v>68</v>
       </c>
       <c r="P13" t="n">
-        <v>494</v>
+        <v>364</v>
       </c>
       <c r="Q13" t="n">
-        <v>407</v>
+        <v>279</v>
       </c>
       <c r="R13" t="n">
-        <v>595</v>
+        <v>456</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0702</v>
+        <v>0.0559</v>
       </c>
       <c r="T13" t="n">
-        <v>0.0578</v>
+        <v>0.0429</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0845</v>
+        <v>0.0701</v>
       </c>
     </row>
     <row r="14">
@@ -1439,28 +1439,28 @@
         <v>153587</v>
       </c>
       <c r="E14" t="n">
-        <v>143157</v>
+        <v>143715</v>
       </c>
       <c r="F14" t="n">
-        <v>164914</v>
+        <v>164246</v>
       </c>
       <c r="G14" t="n">
         <v>8302</v>
       </c>
       <c r="H14" t="n">
-        <v>5655</v>
+        <v>5347</v>
       </c>
       <c r="I14" t="n">
-        <v>11310</v>
+        <v>11269</v>
       </c>
       <c r="J14" t="n">
         <v>0.0571</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0389</v>
+        <v>0.0368</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0778</v>
+        <v>0.0776</v>
       </c>
       <c r="M14" t="s">
         <v>70</v>
@@ -1472,22 +1472,22 @@
         <v>72</v>
       </c>
       <c r="P14" t="n">
-        <v>395</v>
+        <v>234</v>
       </c>
       <c r="Q14" t="n">
-        <v>294</v>
+        <v>148</v>
       </c>
       <c r="R14" t="n">
-        <v>501</v>
+        <v>327</v>
       </c>
       <c r="S14" t="n">
-        <v>0.0524</v>
+        <v>0.034</v>
       </c>
       <c r="T14" t="n">
-        <v>0.039</v>
+        <v>0.0215</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0665</v>
+        <v>0.0476</v>
       </c>
     </row>
     <row r="15">
@@ -1504,28 +1504,28 @@
         <v>157301</v>
       </c>
       <c r="E15" t="n">
-        <v>146476</v>
+        <v>146643</v>
       </c>
       <c r="F15" t="n">
-        <v>169196</v>
+        <v>168370</v>
       </c>
       <c r="G15" t="n">
         <v>3714</v>
       </c>
       <c r="H15" t="n">
-        <v>721</v>
+        <v>695</v>
       </c>
       <c r="I15" t="n">
-        <v>6626</v>
+        <v>6749</v>
       </c>
       <c r="J15" t="n">
         <v>0.0242</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0047</v>
+        <v>0.0045</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0431</v>
+        <v>0.0439</v>
       </c>
       <c r="M15" t="s">
         <v>74</v>
@@ -1537,22 +1537,22 @@
         <v>76</v>
       </c>
       <c r="P15" t="n">
-        <v>325</v>
+        <v>226</v>
       </c>
       <c r="Q15" t="n">
-        <v>234</v>
+        <v>132</v>
       </c>
       <c r="R15" t="n">
-        <v>424</v>
+        <v>313</v>
       </c>
       <c r="S15" t="n">
-        <v>0.041</v>
+        <v>0.0318</v>
       </c>
       <c r="T15" t="n">
-        <v>0.0295</v>
+        <v>0.0186</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0535</v>
+        <v>0.044</v>
       </c>
     </row>
   </sheetData>
